--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44385.35335648148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,14 +710,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 13602-2021</t>
+          <t>A 7398-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44274</v>
+        <v>44606.65796296296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -767,14 +767,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 7398-2022</t>
+          <t>A 13602-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44606.65796296296</v>
+        <v>44274</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -824,14 +824,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 24867-2021</t>
+          <t>A 61593-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44341</v>
+        <v>44501.46244212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -881,14 +881,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 61593-2021</t>
+          <t>A 37412-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44501.46244212963</v>
+        <v>44398</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -938,14 +938,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 37412-2021</t>
+          <t>A 24867-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44398</v>
+        <v>44341</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>44811.63681712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44406.50302083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44473.45759259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44641.43099537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44473.53315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44377.57690972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44379</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44398.26491898148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44503</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44686.32553240741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44327.58306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44348.65982638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>44320</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1974,14 +1974,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 54514-2021</t>
+          <t>A 24686-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44473</v>
+        <v>44727.70273148148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>8.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2031,14 +2031,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 38799-2025</t>
+          <t>A 3867-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45887.45842592593</v>
+        <v>45322.40543981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2088,14 +2088,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 38796-2025</t>
+          <t>A 3868-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45887.45560185185</v>
+        <v>45322.40641203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2145,14 +2145,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 38794-2025</t>
+          <t>A 32914-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45887.45128472222</v>
+        <v>44784.61553240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2202,14 +2202,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38800-2025</t>
+          <t>A 62360-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45887.46082175926</v>
+        <v>44503.45417824074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2259,14 +2259,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 34702-2022</t>
+          <t>A 50364-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44795.55644675926</v>
+        <v>45600.86899305556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2316,14 +2316,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 39498-2025</t>
+          <t>A 57280-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45890.37979166667</v>
+        <v>45629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2373,14 +2373,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 15552-2024</t>
+          <t>A 9375-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45401.63732638889</v>
+        <v>45715.33446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2392,8 +2392,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2430,14 +2435,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 37774-2024</t>
+          <t>A 10251-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45542.42212962963</v>
+        <v>45720.3642824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2450,7 +2455,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2487,14 +2492,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50366-2024</t>
+          <t>A 22279-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45600.87225694444</v>
+        <v>45446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2506,8 +2511,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2544,14 +2554,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10161-2025</t>
+          <t>A 22283-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45719</v>
+        <v>45446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2565,11 +2575,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2606,14 +2616,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62122-2024</t>
+          <t>A 38800-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45656.57710648148</v>
+        <v>45887.46082175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2626,7 +2636,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2663,14 +2673,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57160-2025</t>
+          <t>A 38794-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45979.52912037037</v>
+        <v>45887.45128472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2683,7 +2693,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2720,14 +2730,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 57161-2025</t>
+          <t>A 38796-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45979.53009259259</v>
+        <v>45887.45560185185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2740,7 +2750,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2777,14 +2787,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41022-2025</t>
+          <t>A 38799-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45898.36680555555</v>
+        <v>45887.45842592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2834,14 +2844,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14223-2024</t>
+          <t>A 16248-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45393.46190972222</v>
+        <v>44670.44054398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2854,7 +2864,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2891,14 +2901,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 58148-2025</t>
+          <t>A 10690-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45981</v>
+        <v>45722.2999537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2911,7 +2921,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2948,14 +2958,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62373-2021</t>
+          <t>A 12006-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44503.46652777777</v>
+        <v>45377.31758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2968,7 +2978,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3005,14 +3015,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3317-2024</t>
+          <t>A 39498-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45317.49085648148</v>
+        <v>45890.37979166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3024,13 +3034,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>10.2</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3067,14 +3072,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56429-2022</t>
+          <t>A 27125-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44891.458125</v>
+        <v>45811.84207175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3087,7 +3092,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3124,14 +3129,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56629-2021</t>
+          <t>A 41022-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44480.84695601852</v>
+        <v>45898.36680555555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3144,7 +3149,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3181,14 +3186,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22279-2024</t>
+          <t>A 64639-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45446</v>
+        <v>45281.55422453704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3200,13 +3205,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3243,14 +3243,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22283-2024</t>
+          <t>A 3317-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45446</v>
+        <v>45317.49085648148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3264,11 +3264,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>10.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3305,14 +3305,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38243-2024</t>
+          <t>A 892-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45545.57233796296</v>
+        <v>44931.81667824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3362,14 +3362,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6820-2024</t>
+          <t>A 8177-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45342.60222222222</v>
+        <v>45351.62673611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11.8</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3419,14 +3419,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45223-2025</t>
+          <t>A 37774-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45919.58</v>
+        <v>45542.42212962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3476,14 +3476,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24686-2022</t>
+          <t>A 45223-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44727.70273148148</v>
+        <v>45919.58</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.6</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3533,14 +3533,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 46535-2025</t>
+          <t>A 32176-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45926.3405787037</v>
+        <v>45835</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3590,14 +3590,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 47241-2025</t>
+          <t>A 46535-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45930.42329861111</v>
+        <v>45926.3405787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3647,14 +3647,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 64846-2023</t>
+          <t>A 47241-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45282</v>
+        <v>45930.42329861111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3704,14 +3704,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 60138-2022</t>
+          <t>A 24351-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44909.67563657407</v>
+        <v>44337</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3761,14 +3761,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46575-2025</t>
+          <t>A 54514-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45926</v>
+        <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3818,14 +3818,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49693-2025</t>
+          <t>A 32615-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45939.67203703704</v>
+        <v>45838.64232638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3875,14 +3875,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 12421-2024</t>
+          <t>A 49693-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45379</v>
+        <v>45939.67203703704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3894,13 +3894,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3937,14 +3932,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 62737-2025</t>
+          <t>A 54555-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46008.57259259259</v>
+        <v>45233</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3957,7 +3952,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3994,14 +3989,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51380-2025</t>
+          <t>A 3319-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45950.4577662037</v>
+        <v>45317</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4013,8 +4008,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33817-2023</t>
+          <t>A 3320-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45133.59908564815</v>
+        <v>45317</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4070,8 +4070,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4108,14 +4113,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19946-2024</t>
+          <t>A 51380-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45433.62172453704</v>
+        <v>45950.4577662037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4128,7 +4133,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4165,14 +4170,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32914-2022</t>
+          <t>A 15552-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44784.61553240741</v>
+        <v>45401.63732638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4185,7 +4190,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4222,14 +4227,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18499-2022</t>
+          <t>A 44992-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44686</v>
+        <v>45190.95885416667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4241,13 +4246,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4284,14 +4284,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3319-2024</t>
+          <t>A 10889-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45317</v>
+        <v>44991.44820601852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4303,13 +4303,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4346,14 +4341,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3320-2024</t>
+          <t>A 34702-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45317</v>
+        <v>44795.55644675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4365,13 +4360,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4408,14 +4398,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9375-2025</t>
+          <t>A 19946-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45715.33446759259</v>
+        <v>45433.62172453704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4427,13 +4417,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4470,14 +4455,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20555-2022</t>
+          <t>A 8213-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44700.36916666666</v>
+        <v>45708.44587962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4490,7 +4475,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4527,14 +4512,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10889-2023</t>
+          <t>A 55475-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44991.44820601852</v>
+        <v>45971</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4547,7 +4532,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4584,14 +4569,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55475-2025</t>
+          <t>A 57160-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45971</v>
+        <v>45979.52912037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4604,7 +4589,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4641,14 +4626,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60768-2024</t>
+          <t>A 57161-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45644.57855324074</v>
+        <v>45979.53009259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4661,7 +4646,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4698,14 +4683,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8213-2025</t>
+          <t>A 58148-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45708.44587962963</v>
+        <v>45981</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4718,7 +4703,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4755,14 +4740,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57280-2024</t>
+          <t>A 36603-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45629</v>
+        <v>44804.6522800926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4775,7 +4760,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4812,14 +4797,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13876-2023</t>
+          <t>A 62373-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45007.71679398148</v>
+        <v>44503.46652777777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,14 +4854,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4954-2024</t>
+          <t>A 62122-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45329</v>
+        <v>45656.57710648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4889,7 +4874,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4926,14 +4911,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36603-2022</t>
+          <t>A 6820-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44804.6522800926</v>
+        <v>45342.60222222222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4946,7 +4931,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>11.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4983,14 +4968,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 16248-2022</t>
+          <t>A 33510-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44670.44054398148</v>
+        <v>45131.48244212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5003,7 +4988,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5040,14 +5025,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8177-2024</t>
+          <t>A 64846-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45351.62673611111</v>
+        <v>45282</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5060,7 +5045,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5097,14 +5082,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24351-2021</t>
+          <t>A 16145-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44337</v>
+        <v>45750.45947916667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5117,7 +5102,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5154,14 +5139,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54555-2023</t>
+          <t>A 46575-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45233</v>
+        <v>45926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5174,7 +5159,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5211,14 +5196,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44992-2023</t>
+          <t>A 15306-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45190.95885416667</v>
+        <v>45400.64541666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5231,7 +5216,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5268,14 +5253,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 892-2023</t>
+          <t>A 33817-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44931.81667824074</v>
+        <v>45133.59908564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5288,7 +5273,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5325,14 +5310,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3867-2024</t>
+          <t>A 62737-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45322.40543981481</v>
+        <v>46008.57259259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5345,7 +5330,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5382,14 +5367,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3868-2024</t>
+          <t>A 56629-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45322.40641203704</v>
+        <v>44480.84695601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5402,7 +5387,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5439,14 +5424,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15306-2024</t>
+          <t>A 56429-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45400.64541666667</v>
+        <v>44891.458125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5459,7 +5444,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5496,14 +5481,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54408-2021</t>
+          <t>A 10161-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44473.40636574074</v>
+        <v>45719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5515,8 +5500,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5553,14 +5543,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39678-2021</t>
+          <t>A 60768-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44417</v>
+        <v>45644.57855324074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5572,13 +5562,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5615,14 +5600,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 17072-2022</t>
+          <t>A 54408-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44677.32255787037</v>
+        <v>44473.40636574074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5634,13 +5619,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5677,14 +5657,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64639-2023</t>
+          <t>A 12421-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45281.55422453704</v>
+        <v>45379</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5696,8 +5676,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5734,14 +5719,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62360-2021</t>
+          <t>A 20555-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44503.45417824074</v>
+        <v>44700.36916666666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5754,7 +5739,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5791,14 +5776,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33510-2023</t>
+          <t>A 17072-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45131.48244212963</v>
+        <v>44677.32255787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5810,8 +5795,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5848,14 +5838,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16145-2025</t>
+          <t>A 60138-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45750.45947916667</v>
+        <v>44909.67563657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5868,7 +5858,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5905,14 +5895,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 38715-2022</t>
+          <t>A 37625-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44815</v>
+        <v>45541.51965277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5925,7 +5915,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5962,14 +5952,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10251-2025</t>
+          <t>A 38243-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45720.3642824074</v>
+        <v>45545.57233796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5982,7 +5972,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6019,14 +6009,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50364-2024</t>
+          <t>A 14223-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45600.86899305556</v>
+        <v>45393.46190972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6039,7 +6029,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6076,14 +6066,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 37625-2024</t>
+          <t>A 38715-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45541.51965277778</v>
+        <v>44815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6096,7 +6086,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6133,14 +6123,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20332-2023</t>
+          <t>A 4954-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45056.47526620371</v>
+        <v>45329</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6153,7 +6143,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6190,14 +6180,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 22351-2025</t>
+          <t>A 39678-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45786.45296296296</v>
+        <v>44417</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6209,8 +6199,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6247,14 +6242,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22356-2025</t>
+          <t>A 18499-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45786.46065972222</v>
+        <v>44686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6266,8 +6261,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 22340-2025</t>
+          <t>A 13876-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45786.44733796296</v>
+        <v>45007.71679398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6361,14 +6361,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14141-2025</t>
+          <t>A 50366-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45740.484375</v>
+        <v>45600.87225694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 10164-2025</t>
+          <t>A 22351-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45719.64946759259</v>
+        <v>45786.45296296296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6437,13 +6437,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6480,14 +6475,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 9374-2025</t>
+          <t>A 20332-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45715.32998842592</v>
+        <v>45056.47526620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6499,13 +6494,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6542,14 +6532,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10690-2025</t>
+          <t>A 22356-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45722.2999537037</v>
+        <v>45786.46065972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6562,7 +6552,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6599,14 +6589,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12006-2024</t>
+          <t>A 22340-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45377.31758101852</v>
+        <v>45786.44733796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6619,7 +6609,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6656,14 +6646,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27125-2025</t>
+          <t>A 10164-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45811.84207175926</v>
+        <v>45719.64946759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6675,8 +6665,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6713,14 +6708,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32176-2025</t>
+          <t>A 9374-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45835</v>
+        <v>45715.32998842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6732,8 +6727,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6770,14 +6770,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32615-2025</t>
+          <t>A 14141-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45838.64232638889</v>
+        <v>45740.484375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44385.35335648148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44606.65796296296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44274</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44501.46244212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44398</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44341</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44811.63681712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44406.50302083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44473.45759259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44641.43099537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44473.53315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44377.57690972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44379</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44398.26491898148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44503</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44686.32553240741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44327.58306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44348.65982638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>44320</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44727.70273148148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45322.40543981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45322.40641203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44784.61553240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44503.45417824074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>45600.86899305556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>45629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>45715.33446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>45720.3642824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>45446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>45887.46082175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45887.45128472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45887.45560185185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>45887.45842592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>44670.44054398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45722.2999537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45377.31758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45890.37979166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45811.84207175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>45898.36680555555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>45281.55422453704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>45317.49085648148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44931.81667824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>45351.62673611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>45542.42212962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>45919.58</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>45835</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>45926.3405787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>45930.42329861111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44337</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>45838.64232638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>45939.67203703704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>45233</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>45317</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45317</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>45950.4577662037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>45401.63732638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45190.95885416667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44991.44820601852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44795.55644675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>45433.62172453704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>45708.44587962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>45971</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45979.52912037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45979.53009259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45981</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44804.6522800926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44503.46652777777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45656.57710648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45342.60222222222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45131.48244212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45282</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45750.45947916667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45400.64541666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>45133.59908564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>46008.57259259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44480.84695601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44891.458125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>45719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45644.57855324074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44473.40636574074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>45379</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44700.36916666666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44677.32255787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44909.67563657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45541.51965277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45545.57233796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45393.46190972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45329</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44417</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45007.71679398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>45600.87225694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45786.45296296296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45056.47526620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45786.46065972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45786.44733796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45719.64946759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>45715.32998842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>45740.484375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44385.35335648148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44606.65796296296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44274</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44501.46244212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44398</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44341</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44811.63681712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44406.50302083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44473.45759259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44641.43099537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44473.53315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44377.57690972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44379</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44398.26491898148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44503</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44686.32553240741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44327.58306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44348.65982638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>44320</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>44727.70273148148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>45322.40543981481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45322.40641203704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>44784.61553240741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44503.45417824074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>45600.86899305556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>45629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>45715.33446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>45720.3642824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>45446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>45446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>45887.46082175926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45887.45128472222</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45887.45560185185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>45887.45842592593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>44670.44054398148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45722.2999537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45377.31758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45890.37979166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45811.84207175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>45898.36680555555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>45281.55422453704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>45317.49085648148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44931.81667824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>45351.62673611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>45542.42212962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>45919.58</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>45835</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>45926.3405787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>45930.42329861111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44337</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>45838.64232638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>45939.67203703704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>45233</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>45317</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45317</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>45950.4577662037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>45401.63732638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45190.95885416667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44991.44820601852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44795.55644675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>45433.62172453704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>45708.44587962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>45971</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45979.52912037037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45979.53009259259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45981</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44804.6522800926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44503.46652777777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>45656.57710648148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45342.60222222222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45131.48244212963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45282</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45750.45947916667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45400.64541666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>45133.59908564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>46008.57259259259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44480.84695601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44891.458125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>45719</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>45644.57855324074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44473.40636574074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>45379</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44700.36916666666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44677.32255787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44909.67563657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>45541.51965277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>45545.57233796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>45393.46190972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>44815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>45329</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44417</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>45007.71679398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>45600.87225694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45786.45296296296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45056.47526620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45786.46065972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45786.44733796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45719.64946759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>45715.32998842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>45740.484375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44385.35335648148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,14 +710,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7398-2022</t>
+          <t>A 13602-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44606.65796296296</v>
+        <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -767,14 +767,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 13602-2021</t>
+          <t>A 7398-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44274</v>
+        <v>44606.65796296296</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -824,14 +824,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 61593-2021</t>
+          <t>A 24867-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44501.46244212963</v>
+        <v>44341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>44398</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,14 +938,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24867-2021</t>
+          <t>A 61593-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44341</v>
+        <v>44501.46244212963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>44811.63681712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44406.50302083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44473.45759259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44641.43099537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44473.53315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44377.57690972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44379</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44398.26491898148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44503</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44686.32553240741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44327.58306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44348.65982638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>44320</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1974,14 +1974,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 24686-2022</t>
+          <t>A 15552-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44727.70273148148</v>
+        <v>45401.63732638889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8.6</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2031,14 +2031,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 3867-2024</t>
+          <t>A 14223-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45322.40543981481</v>
+        <v>45393.46190972222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2088,14 +2088,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3868-2024</t>
+          <t>A 3317-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45322.40641203704</v>
+        <v>45317.49085648148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2107,8 +2107,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>10.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2145,14 +2150,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32914-2022</t>
+          <t>A 56429-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44784.61553240741</v>
+        <v>44891.458125</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2165,7 +2170,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2202,14 +2207,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 62360-2021</t>
+          <t>A 56629-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44503.45417824074</v>
+        <v>44480.84695601852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2222,7 +2227,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2259,14 +2264,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 50364-2024</t>
+          <t>A 22279-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45600.86899305556</v>
+        <v>45446</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2278,8 +2283,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2316,14 +2326,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57280-2024</t>
+          <t>A 22283-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45629</v>
+        <v>45446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2335,8 +2345,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2373,14 +2388,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 9375-2025</t>
+          <t>A 6820-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45715.33446759259</v>
+        <v>45342.60222222222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2392,13 +2407,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>11.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2435,14 +2445,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 10251-2025</t>
+          <t>A 38243-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45720.3642824074</v>
+        <v>45545.57233796296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2455,7 +2465,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2492,14 +2502,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 22279-2024</t>
+          <t>A 64846-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45446</v>
+        <v>45282</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2511,13 +2521,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2554,14 +2559,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22283-2024</t>
+          <t>A 60138-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45446</v>
+        <v>44909.67563657407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2573,13 +2578,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2616,14 +2616,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38800-2025</t>
+          <t>A 12421-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45887.46082175926</v>
+        <v>45379</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2635,8 +2635,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2673,14 +2678,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38794-2025</t>
+          <t>A 38799-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45887.45128472222</v>
+        <v>45887.45842592593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2693,7 +2698,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2737,7 +2742,7 @@
         <v>45887.45560185185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2787,14 +2792,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38799-2025</t>
+          <t>A 38794-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45887.45842592593</v>
+        <v>45887.45128472222</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2807,7 +2812,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2844,14 +2849,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16248-2022</t>
+          <t>A 38800-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44670.44054398148</v>
+        <v>45887.46082175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2864,7 +2869,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2901,14 +2906,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10690-2025</t>
+          <t>A 32914-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45722.2999537037</v>
+        <v>44784.61553240741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2921,7 +2926,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2958,14 +2963,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12006-2024</t>
+          <t>A 32176-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45377.31758101852</v>
+        <v>45835</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2978,7 +2983,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3015,14 +3020,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39498-2025</t>
+          <t>A 32615-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45890.37979166667</v>
+        <v>45838.64232638889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3035,7 +3040,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3072,14 +3077,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27125-2025</t>
+          <t>A 18499-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45811.84207175926</v>
+        <v>44686</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3091,8 +3096,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3129,14 +3139,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41022-2025</t>
+          <t>A 39498-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45898.36680555555</v>
+        <v>45890.37979166667</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3149,7 +3159,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3186,14 +3196,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 64639-2023</t>
+          <t>A 3319-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45281.55422453704</v>
+        <v>45317</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3205,8 +3215,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3243,14 +3258,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3317-2024</t>
+          <t>A 3320-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45317.49085648148</v>
+        <v>45317</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3268,7 +3283,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10.2</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3305,14 +3320,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 892-2023</t>
+          <t>A 9375-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44931.81667824074</v>
+        <v>45715.33446759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3324,8 +3339,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3362,14 +3382,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8177-2024</t>
+          <t>A 20555-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45351.62673611111</v>
+        <v>44700.36916666666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3382,7 +3402,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3419,14 +3439,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 37774-2024</t>
+          <t>A 41022-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45542.42212962963</v>
+        <v>45898.36680555555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3439,7 +3459,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3476,14 +3496,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45223-2025</t>
+          <t>A 10889-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45919.58</v>
+        <v>44991.44820601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3496,7 +3516,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3533,14 +3553,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32176-2025</t>
+          <t>A 60768-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45835</v>
+        <v>45644.57855324074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3553,7 +3573,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3590,14 +3610,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46535-2025</t>
+          <t>A 8213-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45926.3405787037</v>
+        <v>45708.44587962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3610,7 +3630,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3647,14 +3667,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47241-2025</t>
+          <t>A 57280-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45930.42329861111</v>
+        <v>45629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3667,7 +3687,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3704,14 +3724,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24351-2021</t>
+          <t>A 45223-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44337</v>
+        <v>45919.58</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3724,7 +3744,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3761,14 +3781,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 54514-2021</t>
+          <t>A 46535-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44473</v>
+        <v>45926.3405787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3781,7 +3801,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3818,14 +3838,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 32615-2025</t>
+          <t>A 47241-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45838.64232638889</v>
+        <v>45930.42329861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3838,7 +3858,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3875,14 +3895,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49693-2025</t>
+          <t>A 36603-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45939.67203703704</v>
+        <v>44804.6522800926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3895,7 +3915,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3932,14 +3952,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54555-2023</t>
+          <t>A 54514-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45233</v>
+        <v>44473</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3952,7 +3972,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3989,14 +4009,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3319-2024</t>
+          <t>A 49693-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45317</v>
+        <v>45939.67203703704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4008,13 +4028,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4051,14 +4066,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3320-2024</t>
+          <t>A 34702-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45317</v>
+        <v>44795.55644675926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4070,13 +4085,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4120,7 +4130,7 @@
         <v>45950.4577662037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4170,14 +4180,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15552-2024</t>
+          <t>A 37774-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45401.63732638889</v>
+        <v>45542.42212962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4190,7 +4200,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4227,14 +4237,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44992-2023</t>
+          <t>A 50366-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45190.95885416667</v>
+        <v>45600.87225694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4247,7 +4257,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4284,14 +4294,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10889-2023</t>
+          <t>A 62122-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44991.44820601852</v>
+        <v>45656.57710648148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4304,7 +4314,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4341,14 +4351,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34702-2022</t>
+          <t>A 62373-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44795.55644675926</v>
+        <v>44503.46652777777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4361,7 +4371,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4398,14 +4408,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 19946-2024</t>
+          <t>A 24686-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45433.62172453704</v>
+        <v>44727.70273148148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4418,7 +4428,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>8.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4455,14 +4465,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8213-2025</t>
+          <t>A 55475-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45708.44587962963</v>
+        <v>45971</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4475,7 +4485,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4512,14 +4522,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55475-2025</t>
+          <t>A 33817-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45971</v>
+        <v>45133.59908564815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4532,7 +4542,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4569,14 +4579,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57160-2025</t>
+          <t>A 19946-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45979.52912037037</v>
+        <v>45433.62172453704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4589,7 +4599,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4626,14 +4636,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57161-2025</t>
+          <t>A 57160-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45979.53009259259</v>
+        <v>45979.52912037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4646,7 +4656,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4683,14 +4693,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58148-2025</t>
+          <t>A 57161-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45981</v>
+        <v>45979.53009259259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4703,7 +4713,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4740,14 +4750,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36603-2022</t>
+          <t>A 58148-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44804.6522800926</v>
+        <v>45981</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4760,7 +4770,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4797,14 +4807,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62373-2021</t>
+          <t>A 13876-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44503.46652777777</v>
+        <v>45007.71679398148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4854,14 +4864,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62122-2024</t>
+          <t>A 4954-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45656.57710648148</v>
+        <v>45329</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4874,7 +4884,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4911,14 +4921,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6820-2024</t>
+          <t>A 16248-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45342.60222222222</v>
+        <v>44670.44054398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4931,7 +4941,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4968,14 +4978,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 33510-2023</t>
+          <t>A 8177-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45131.48244212963</v>
+        <v>45351.62673611111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4988,7 +4998,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5025,14 +5035,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 64846-2023</t>
+          <t>A 24351-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45282</v>
+        <v>44337</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5045,7 +5055,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5082,14 +5092,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16145-2025</t>
+          <t>A 46575-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45750.45947916667</v>
+        <v>45926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5102,7 +5112,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5139,14 +5149,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46575-2025</t>
+          <t>A 62737-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45926</v>
+        <v>46008.57259259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5159,7 +5169,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5196,14 +5206,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15306-2024</t>
+          <t>A 54555-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45400.64541666667</v>
+        <v>45233</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5216,7 +5226,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5253,14 +5263,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33817-2023</t>
+          <t>A 44992-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45133.59908564815</v>
+        <v>45190.95885416667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5273,7 +5283,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5310,14 +5320,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62737-2025</t>
+          <t>A 892-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46008.57259259259</v>
+        <v>44931.81667824074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5330,7 +5340,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5367,14 +5377,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56629-2021</t>
+          <t>A 10161-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44480.84695601852</v>
+        <v>45719</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5386,8 +5396,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5424,14 +5439,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56429-2022</t>
+          <t>A 3867-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44891.458125</v>
+        <v>45322.40543981481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5444,7 +5459,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5481,14 +5496,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 10161-2025</t>
+          <t>A 3868-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45719</v>
+        <v>45322.40641203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5500,13 +5515,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5543,14 +5553,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60768-2024</t>
+          <t>A 15306-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45644.57855324074</v>
+        <v>45400.64541666667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5563,7 +5573,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5607,7 +5617,7 @@
         <v>44473.40636574074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5657,14 +5667,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 12421-2024</t>
+          <t>A 39678-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45379</v>
+        <v>44417</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5678,11 +5688,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5719,14 +5729,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 20555-2022</t>
+          <t>A 17072-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44700.36916666666</v>
+        <v>44677.32255787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5738,8 +5748,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5776,14 +5791,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17072-2022</t>
+          <t>A 64639-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44677.32255787037</v>
+        <v>45281.55422453704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5795,13 +5810,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5838,14 +5848,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60138-2022</t>
+          <t>A 62360-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44909.67563657407</v>
+        <v>44503.45417824074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5858,7 +5868,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5895,14 +5905,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37625-2024</t>
+          <t>A 33510-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45541.51965277778</v>
+        <v>45131.48244212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5915,7 +5925,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5952,14 +5962,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 38243-2024</t>
+          <t>A 16145-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45545.57233796296</v>
+        <v>45750.45947916667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5972,7 +5982,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6009,14 +6019,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14223-2024</t>
+          <t>A 38715-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45393.46190972222</v>
+        <v>44815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6029,7 +6039,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6066,14 +6076,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38715-2022</t>
+          <t>A 10251-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44815</v>
+        <v>45720.3642824074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6086,7 +6096,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6123,14 +6133,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4954-2024</t>
+          <t>A 50364-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45329</v>
+        <v>45600.86899305556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6143,7 +6153,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6180,14 +6190,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39678-2021</t>
+          <t>A 37625-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44417</v>
+        <v>45541.51965277778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6199,13 +6209,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6242,14 +6247,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 18499-2022</t>
+          <t>A 20332-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44686</v>
+        <v>45056.47526620371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6261,13 +6266,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13876-2023</t>
+          <t>A 22351-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45007.71679398148</v>
+        <v>45786.45296296296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6361,14 +6361,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50366-2024</t>
+          <t>A 22356-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45600.87225694444</v>
+        <v>45786.46065972222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22351-2025</t>
+          <t>A 22340-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45786.45296296296</v>
+        <v>45786.44733796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6475,14 +6475,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20332-2023</t>
+          <t>A 14141-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45056.47526620371</v>
+        <v>45740.484375</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6532,14 +6532,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 22356-2025</t>
+          <t>A 10164-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45786.46065972222</v>
+        <v>45719.64946759259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6551,8 +6551,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6589,14 +6594,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22340-2025</t>
+          <t>A 9374-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45786.44733796296</v>
+        <v>45715.32998842592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6608,8 +6613,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6646,14 +6656,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10164-2025</t>
+          <t>A 10690-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45719.64946759259</v>
+        <v>45722.2999537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6665,13 +6675,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6708,14 +6713,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9374-2025</t>
+          <t>A 12006-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45715.32998842592</v>
+        <v>45377.31758101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6727,13 +6732,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6770,14 +6770,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14141-2025</t>
+          <t>A 27125-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45740.484375</v>
+        <v>45811.84207175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44385.35335648148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44606.65796296296</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -824,14 +824,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 24867-2021</t>
+          <t>A 61593-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44341</v>
+        <v>44501.46244212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -881,14 +881,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 37412-2021</t>
+          <t>A 24867-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44398</v>
+        <v>44341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -938,14 +938,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 61593-2021</t>
+          <t>A 37412-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44501.46244212963</v>
+        <v>44398</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>44811.63681712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44406.50302083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44473.45759259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44641.43099537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44473.53315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44377.57690972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44379</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44398.26491898148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44503</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44686.32553240741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44327.58306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44348.65982638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>44320</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1974,14 +1974,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 15552-2024</t>
+          <t>A 13876-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45401.63732638889</v>
+        <v>45007.71679398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2031,14 +2031,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14223-2024</t>
+          <t>A 24686-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45393.46190972222</v>
+        <v>44727.70273148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2088,14 +2088,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3317-2024</t>
+          <t>A 38800-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45317.49085648148</v>
+        <v>45887.46082175926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2107,13 +2107,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>10.2</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2150,14 +2145,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 56429-2022</t>
+          <t>A 38794-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44891.458125</v>
+        <v>45887.45128472222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2170,7 +2165,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2207,14 +2202,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56629-2021</t>
+          <t>A 38796-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44480.84695601852</v>
+        <v>45887.45560185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2264,14 +2259,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 22279-2024</t>
+          <t>A 38799-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45446</v>
+        <v>45887.45842592593</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2283,13 +2278,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2326,14 +2316,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22283-2024</t>
+          <t>A 3867-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45446</v>
+        <v>45322.40543981481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2345,13 +2335,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2388,14 +2373,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6820-2024</t>
+          <t>A 3868-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45342.60222222222</v>
+        <v>45322.40641203704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2408,7 +2393,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>11.8</v>
+        <v>0.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2445,14 +2430,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 38243-2024</t>
+          <t>A 32914-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45545.57233796296</v>
+        <v>44784.61553240741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2465,7 +2450,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2502,14 +2487,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 64846-2023</t>
+          <t>A 41022-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45282</v>
+        <v>45898.36680555555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2522,7 +2507,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2559,14 +2544,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 60138-2022</t>
+          <t>A 62360-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44909.67563657407</v>
+        <v>44503.45417824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2579,7 +2564,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2616,14 +2601,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12421-2024</t>
+          <t>A 39498-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45379</v>
+        <v>45890.37979166667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2635,13 +2620,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2678,14 +2658,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38799-2025</t>
+          <t>A 50366-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45887.45842592593</v>
+        <v>45600.87225694444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2698,7 +2678,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2735,14 +2715,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38796-2025</t>
+          <t>A 50364-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45887.45560185185</v>
+        <v>45600.86899305556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2755,7 +2735,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2792,14 +2772,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38794-2025</t>
+          <t>A 57280-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45887.45128472222</v>
+        <v>45629</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2849,14 +2829,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38800-2025</t>
+          <t>A 9375-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45887.46082175926</v>
+        <v>45715.33446759259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2868,8 +2848,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2906,14 +2891,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32914-2022</t>
+          <t>A 10251-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44784.61553240741</v>
+        <v>45720.3642824074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2926,7 +2911,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2963,14 +2948,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32176-2025</t>
+          <t>A 22279-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45835</v>
+        <v>45446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2982,8 +2967,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3020,14 +3010,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32615-2025</t>
+          <t>A 22283-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45838.64232638889</v>
+        <v>45446</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3039,8 +3029,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3077,14 +3072,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 18499-2022</t>
+          <t>A 22351-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44686</v>
+        <v>45786.45296296296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3096,13 +3091,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3139,14 +3129,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39498-2025</t>
+          <t>A 20332-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45890.37979166667</v>
+        <v>45056.47526620371</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3159,7 +3149,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3196,14 +3186,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3319-2024</t>
+          <t>A 22356-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45317</v>
+        <v>45786.46065972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3215,13 +3205,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3258,14 +3243,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3320-2024</t>
+          <t>A 22340-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45317</v>
+        <v>45786.44733796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3277,13 +3262,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3320,14 +3300,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9375-2025</t>
+          <t>A 10164-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45715.33446759259</v>
+        <v>45719.64946759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3345,7 +3325,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3382,14 +3362,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20555-2022</t>
+          <t>A 9374-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44700.36916666666</v>
+        <v>45715.32998842592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3401,8 +3381,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3439,14 +3424,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41022-2025</t>
+          <t>A 14141-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45898.36680555555</v>
+        <v>45740.484375</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3459,7 +3444,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3496,14 +3481,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10889-2023</t>
+          <t>A 45223-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44991.44820601852</v>
+        <v>45919.58</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3516,7 +3501,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3553,14 +3538,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60768-2024</t>
+          <t>A 16248-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45644.57855324074</v>
+        <v>44670.44054398148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3573,7 +3558,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3610,14 +3595,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8213-2025</t>
+          <t>A 10690-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45708.44587962963</v>
+        <v>45722.2999537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3630,7 +3615,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3667,14 +3652,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57280-2024</t>
+          <t>A 12006-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45629</v>
+        <v>45377.31758101852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3687,7 +3672,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3724,14 +3709,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45223-2025</t>
+          <t>A 64639-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45919.58</v>
+        <v>45281.55422453704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3744,7 +3729,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3781,14 +3766,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46535-2025</t>
+          <t>A 3317-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45926.3405787037</v>
+        <v>45317.49085648148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3800,8 +3785,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>10.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3838,14 +3828,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 47241-2025</t>
+          <t>A 27125-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45930.42329861111</v>
+        <v>45811.84207175926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3858,7 +3848,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3895,14 +3885,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36603-2022</t>
+          <t>A 892-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44804.6522800926</v>
+        <v>44931.81667824074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3915,7 +3905,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3952,14 +3942,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54514-2021</t>
+          <t>A 8177-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44473</v>
+        <v>45351.62673611111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3972,7 +3962,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4009,14 +3999,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49693-2025</t>
+          <t>A 37774-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45939.67203703704</v>
+        <v>45542.42212962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4029,7 +4019,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4066,14 +4056,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34702-2022</t>
+          <t>A 46535-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44795.55644675926</v>
+        <v>45926.3405787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4086,7 +4076,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4123,14 +4113,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51380-2025</t>
+          <t>A 47241-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45950.4577662037</v>
+        <v>45930.42329861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4143,7 +4133,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4180,14 +4170,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37774-2024</t>
+          <t>A 32176-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45542.42212962963</v>
+        <v>45835</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4200,7 +4190,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4237,14 +4227,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50366-2024</t>
+          <t>A 32615-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45600.87225694444</v>
+        <v>45838.64232638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4257,7 +4247,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4294,14 +4284,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62122-2024</t>
+          <t>A 24351-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45656.57710648148</v>
+        <v>44337</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4314,7 +4304,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4351,14 +4341,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62373-2021</t>
+          <t>A 54514-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44503.46652777777</v>
+        <v>44473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4371,7 +4361,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4408,14 +4398,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24686-2022</t>
+          <t>A 49693-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44727.70273148148</v>
+        <v>45939.67203703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4428,7 +4418,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8.6</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4465,14 +4455,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55475-2025</t>
+          <t>A 54555-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45971</v>
+        <v>45233</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4485,7 +4475,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4522,14 +4512,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33817-2023</t>
+          <t>A 3319-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45133.59908564815</v>
+        <v>45317</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4541,8 +4531,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4579,14 +4574,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19946-2024</t>
+          <t>A 3320-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45433.62172453704</v>
+        <v>45317</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4598,8 +4593,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4636,14 +4636,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57160-2025</t>
+          <t>A 15552-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45979.52912037037</v>
+        <v>45401.63732638889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4693,14 +4693,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57161-2025</t>
+          <t>A 44992-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45979.53009259259</v>
+        <v>45190.95885416667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4750,14 +4750,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58148-2025</t>
+          <t>A 10889-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45981</v>
+        <v>44991.44820601852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4807,14 +4807,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13876-2023</t>
+          <t>A 51380-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45007.71679398148</v>
+        <v>45950.4577662037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4864,14 +4864,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4954-2024</t>
+          <t>A 34702-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45329</v>
+        <v>44795.55644675926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4921,14 +4921,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16248-2022</t>
+          <t>A 19946-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44670.44054398148</v>
+        <v>45433.62172453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4978,14 +4978,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8177-2024</t>
+          <t>A 8213-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45351.62673611111</v>
+        <v>45708.44587962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5035,14 +5035,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 24351-2021</t>
+          <t>A 55475-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44337</v>
+        <v>45971</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5092,14 +5092,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46575-2025</t>
+          <t>A 36603-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45926</v>
+        <v>44804.6522800926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5149,14 +5149,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 62737-2025</t>
+          <t>A 57160-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46008.57259259259</v>
+        <v>45979.52912037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5206,14 +5206,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 54555-2023</t>
+          <t>A 57161-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45233</v>
+        <v>45979.53009259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5263,14 +5263,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44992-2023</t>
+          <t>A 62373-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45190.95885416667</v>
+        <v>44503.46652777777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5320,14 +5320,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 892-2023</t>
+          <t>A 58148-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44931.81667824074</v>
+        <v>45981</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>5.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5377,14 +5377,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10161-2025</t>
+          <t>A 62122-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45719</v>
+        <v>45656.57710648148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5396,13 +5396,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5439,14 +5434,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3867-2024</t>
+          <t>A 6820-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45322.40543981481</v>
+        <v>45342.60222222222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5459,7 +5454,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.3</v>
+        <v>11.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5496,14 +5491,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3868-2024</t>
+          <t>A 33510-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45322.40641203704</v>
+        <v>45131.48244212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5516,7 +5511,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5553,14 +5548,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15306-2024</t>
+          <t>A 64846-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45400.64541666667</v>
+        <v>45282</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5573,7 +5568,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5610,14 +5605,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54408-2021</t>
+          <t>A 16145-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44473.40636574074</v>
+        <v>45750.45947916667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5630,7 +5625,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5667,14 +5662,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 39678-2021</t>
+          <t>A 15306-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44417</v>
+        <v>45400.64541666667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5686,13 +5681,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5729,14 +5719,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17072-2022</t>
+          <t>A 46575-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44677.32255787037</v>
+        <v>45926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5748,13 +5738,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5791,14 +5776,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 64639-2023</t>
+          <t>A 33817-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45281.55422453704</v>
+        <v>45133.59908564815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5811,7 +5796,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5848,14 +5833,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62360-2021</t>
+          <t>A 62737-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44503.45417824074</v>
+        <v>46008.57259259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5868,7 +5853,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5905,14 +5890,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33510-2023</t>
+          <t>A 56629-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45131.48244212963</v>
+        <v>44480.84695601852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5925,7 +5910,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5962,14 +5947,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16145-2025</t>
+          <t>A 56429-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45750.45947916667</v>
+        <v>44891.458125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5982,7 +5967,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6019,14 +6004,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 38715-2022</t>
+          <t>A 10161-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44815</v>
+        <v>45719</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6038,8 +6023,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6076,14 +6066,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10251-2025</t>
+          <t>A 60768-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45720.3642824074</v>
+        <v>45644.57855324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6096,7 +6086,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6133,14 +6123,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50364-2024</t>
+          <t>A 54408-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45600.86899305556</v>
+        <v>44473.40636574074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6153,7 +6143,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6190,14 +6180,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 37625-2024</t>
+          <t>A 12421-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45541.51965277778</v>
+        <v>45379</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6209,8 +6199,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6247,14 +6242,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20332-2023</t>
+          <t>A 20555-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45056.47526620371</v>
+        <v>44700.36916666666</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6267,7 +6262,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6304,14 +6299,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 22351-2025</t>
+          <t>A 17072-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45786.45296296296</v>
+        <v>44677.32255787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6323,8 +6318,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6361,14 +6361,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 22356-2025</t>
+          <t>A 60138-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45786.46065972222</v>
+        <v>44909.67563657407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6418,14 +6418,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22340-2025</t>
+          <t>A 37625-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45786.44733796296</v>
+        <v>45541.51965277778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6475,14 +6475,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14141-2025</t>
+          <t>A 38243-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45740.484375</v>
+        <v>45545.57233796296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6532,14 +6532,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10164-2025</t>
+          <t>A 14223-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45719.64946759259</v>
+        <v>45393.46190972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6551,13 +6551,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6594,14 +6589,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9374-2025</t>
+          <t>A 38715-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45715.32998842592</v>
+        <v>44815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6613,13 +6608,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6656,14 +6646,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10690-2025</t>
+          <t>A 4954-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45722.2999537037</v>
+        <v>45329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6676,7 +6666,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6713,14 +6703,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12006-2024</t>
+          <t>A 39678-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45377.31758101852</v>
+        <v>44417</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6732,8 +6722,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6770,14 +6765,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27125-2025</t>
+          <t>A 18499-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45811.84207175926</v>
+        <v>44686</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6789,8 +6784,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44385.35335648148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44606.65796296296</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>44501.46244212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>44341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         <v>44398</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44811.63681712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44406.50302083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44473.45759259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44641.43099537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1223,14 +1223,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 62536-2021</t>
+          <t>A 18394-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44503</v>
+        <v>44686.32553240741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1280,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 54521-2021</t>
+          <t>A 33399-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44473.53315972222</v>
+        <v>44377.57690972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1337,14 +1337,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 33399-2021</t>
+          <t>A 62503-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44377.57690972222</v>
+        <v>44503</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1394,14 +1394,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33996-2021</t>
+          <t>A 62536-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44379</v>
+        <v>44503</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1451,14 +1451,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 37377-2021</t>
+          <t>A 54521-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44398.26491898148</v>
+        <v>44473.53315972222</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1508,14 +1508,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 62503-2021</t>
+          <t>A 62710-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1565,14 +1565,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18394-2022</t>
+          <t>A 21204-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44686.32553240741</v>
+        <v>44320</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1584,8 +1584,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>9.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1622,14 +1627,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 62710-2021</t>
+          <t>A 17737-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44502</v>
+        <v>44300</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1642,7 +1647,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1679,14 +1684,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 17737-2021</t>
+          <t>A 22683-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44300</v>
+        <v>44327.58306712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1699,7 +1704,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1736,14 +1741,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 22683-2021</t>
+          <t>A 26623-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44327.58306712963</v>
+        <v>44348.65982638889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1756,7 +1761,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1793,14 +1798,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 26623-2021</t>
+          <t>A 22279-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44348.65982638889</v>
+        <v>45446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1812,8 +1817,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1850,14 +1860,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21204-2021</t>
+          <t>A 22283-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44320</v>
+        <v>45446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1875,7 +1885,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1912,14 +1922,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 18510-2022</t>
+          <t>A 33996-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44686</v>
+        <v>44379</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1931,13 +1941,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1974,14 +1979,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 13876-2023</t>
+          <t>A 18510-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45007.71679398148</v>
+        <v>44686</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1993,8 +1998,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2031,14 +2041,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 24686-2022</t>
+          <t>A 34702-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44727.70273148148</v>
+        <v>44795.55644675926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2051,7 +2061,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.6</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2088,14 +2098,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 38800-2025</t>
+          <t>A 38243-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45887.46082175926</v>
+        <v>45545.57233796296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2108,7 +2118,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2145,14 +2155,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 38794-2025</t>
+          <t>A 6820-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45887.45128472222</v>
+        <v>45342.60222222222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2165,7 +2175,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>11.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2202,14 +2212,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38796-2025</t>
+          <t>A 37377-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45887.45560185185</v>
+        <v>44398.26491898148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2222,7 +2232,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2259,14 +2269,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 38799-2025</t>
+          <t>A 37774-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45887.45842592593</v>
+        <v>45542.42212962963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2279,7 +2289,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2316,14 +2326,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3867-2024</t>
+          <t>A 15552-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45322.40543981481</v>
+        <v>45401.63732638889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2336,7 +2346,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2373,14 +2383,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3868-2024</t>
+          <t>A 50366-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45322.40641203704</v>
+        <v>45600.87225694444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2393,7 +2403,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2430,14 +2440,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32914-2022</t>
+          <t>A 62122-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44784.61553240741</v>
+        <v>45656.57710648148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2450,7 +2460,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2487,14 +2497,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41022-2025</t>
+          <t>A 62373-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45898.36680555555</v>
+        <v>44503.46652777777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2507,7 +2517,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2544,14 +2554,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62360-2021</t>
+          <t>A 64846-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44503.45417824074</v>
+        <v>45282</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2564,7 +2574,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2601,14 +2611,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 39498-2025</t>
+          <t>A 24686-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45890.37979166667</v>
+        <v>44727.70273148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2621,7 +2631,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>8.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2658,14 +2668,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50366-2024</t>
+          <t>A 60138-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45600.87225694444</v>
+        <v>44909.67563657407</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2678,7 +2688,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2715,14 +2725,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50364-2024</t>
+          <t>A 14223-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45600.86899305556</v>
+        <v>45393.46190972222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2735,7 +2745,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2772,14 +2782,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 57280-2024</t>
+          <t>A 33817-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45629</v>
+        <v>45133.59908564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2792,7 +2802,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2829,14 +2839,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 9375-2025</t>
+          <t>A 19946-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45715.33446759259</v>
+        <v>45433.62172453704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2848,13 +2858,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2891,14 +2896,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 10251-2025</t>
+          <t>A 3317-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45720.3642824074</v>
+        <v>45317.49085648148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2910,8 +2915,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>10.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2948,14 +2958,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22279-2024</t>
+          <t>A 12421-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45446</v>
+        <v>45379</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2969,11 +2979,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3010,14 +3020,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 22283-2024</t>
+          <t>A 56429-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45446</v>
+        <v>44891.458125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3029,13 +3039,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3072,14 +3077,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22351-2025</t>
+          <t>A 56629-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45786.45296296296</v>
+        <v>44480.84695601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3092,7 +3097,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3129,14 +3134,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20332-2023</t>
+          <t>A 10690-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45056.47526620371</v>
+        <v>45722.2999537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3149,7 +3154,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3186,14 +3191,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22356-2025</t>
+          <t>A 12006-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45786.46065972222</v>
+        <v>45377.31758101852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3206,7 +3211,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3243,14 +3248,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22340-2025</t>
+          <t>A 27125-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45786.44733796296</v>
+        <v>45811.84207175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3263,7 +3268,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3300,14 +3305,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10164-2025</t>
+          <t>A 32914-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45719.64946759259</v>
+        <v>44784.61553240741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3319,13 +3324,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3362,14 +3362,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9374-2025</t>
+          <t>A 18499-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45715.32998842592</v>
+        <v>44686</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14141-2025</t>
+          <t>A 54408-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45740.484375</v>
+        <v>44473.40636574074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45223-2025</t>
+          <t>A 3319-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45919.58</v>
+        <v>45317</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3500,8 +3500,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3538,14 +3543,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16248-2022</t>
+          <t>A 3320-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44670.44054398148</v>
+        <v>45317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3557,8 +3562,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3595,14 +3605,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10690-2025</t>
+          <t>A 9375-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45722.2999537037</v>
+        <v>45715.33446759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3614,8 +3624,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3652,14 +3667,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12006-2024</t>
+          <t>A 13876-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45377.31758101852</v>
+        <v>45007.71679398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3672,7 +3687,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3709,14 +3724,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 64639-2023</t>
+          <t>A 20555-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45281.55422453704</v>
+        <v>44700.36916666666</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3729,7 +3744,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3766,14 +3781,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3317-2024</t>
+          <t>A 39678-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45317.49085648148</v>
+        <v>44417</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3787,11 +3802,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>10.2</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3828,14 +3843,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27125-2025</t>
+          <t>A 17072-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45811.84207175926</v>
+        <v>44677.32255787037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3847,8 +3862,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3885,14 +3905,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 892-2023</t>
+          <t>A 10889-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44931.81667824074</v>
+        <v>44991.44820601852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3905,7 +3925,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3942,14 +3962,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8177-2024</t>
+          <t>A 4954-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45351.62673611111</v>
+        <v>45329</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3962,7 +3982,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3999,14 +4019,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37774-2024</t>
+          <t>A 32176-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45542.42212962963</v>
+        <v>45835</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4019,7 +4039,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4056,14 +4076,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46535-2025</t>
+          <t>A 32615-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45926.3405787037</v>
+        <v>45838.64232638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4076,7 +4096,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4113,14 +4133,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47241-2025</t>
+          <t>A 64639-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45930.42329861111</v>
+        <v>45281.55422453704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4133,7 +4153,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4170,14 +4190,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32176-2025</t>
+          <t>A 60768-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45835</v>
+        <v>45644.57855324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4190,7 +4210,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4227,14 +4247,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32615-2025</t>
+          <t>A 16248-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45838.64232638889</v>
+        <v>44670.44054398148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4247,7 +4267,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4284,14 +4304,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24351-2021</t>
+          <t>A 62360-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44337</v>
+        <v>44503.45417824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4304,7 +4324,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4341,14 +4361,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 54514-2021</t>
+          <t>A 8177-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44473</v>
+        <v>45351.62673611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4361,7 +4381,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4398,14 +4418,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49693-2025</t>
+          <t>A 24351-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45939.67203703704</v>
+        <v>44337</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4418,7 +4438,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4455,14 +4475,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 54555-2023</t>
+          <t>A 33510-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45233</v>
+        <v>45131.48244212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4475,7 +4495,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4512,14 +4532,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3319-2024</t>
+          <t>A 8213-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45317</v>
+        <v>45708.44587962963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4531,13 +4551,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4574,14 +4589,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3320-2024</t>
+          <t>A 57280-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45317</v>
+        <v>45629</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4593,13 +4608,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4636,14 +4646,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15552-2024</t>
+          <t>A 54555-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45401.63732638889</v>
+        <v>45233</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4656,7 +4666,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4693,14 +4703,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 44992-2023</t>
+          <t>A 36603-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45190.95885416667</v>
+        <v>44804.6522800926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4713,7 +4723,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4750,14 +4760,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10889-2023</t>
+          <t>A 44992-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44991.44820601852</v>
+        <v>45190.95885416667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4770,7 +4780,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4807,14 +4817,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51380-2025</t>
+          <t>A 892-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45950.4577662037</v>
+        <v>44931.81667824074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4827,7 +4837,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4864,14 +4874,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34702-2022</t>
+          <t>A 54514-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44795.55644675926</v>
+        <v>44473</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4884,7 +4894,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4921,14 +4931,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19946-2024</t>
+          <t>A 3867-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45433.62172453704</v>
+        <v>45322.40543981481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4941,7 +4951,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4978,14 +4988,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8213-2025</t>
+          <t>A 3868-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45708.44587962963</v>
+        <v>45322.40641203704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4998,7 +5008,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5035,14 +5045,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55475-2025</t>
+          <t>A 15306-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45971</v>
+        <v>45400.64541666667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5055,7 +5065,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5092,14 +5102,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36603-2022</t>
+          <t>A 38799-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44804.6522800926</v>
+        <v>45887.45842592593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5112,7 +5122,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5149,14 +5159,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57160-2025</t>
+          <t>A 38796-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45979.52912037037</v>
+        <v>45887.45560185185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5206,14 +5216,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57161-2025</t>
+          <t>A 38794-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45979.53009259259</v>
+        <v>45887.45128472222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5226,7 +5236,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5263,14 +5273,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62373-2021</t>
+          <t>A 38800-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44503.46652777777</v>
+        <v>45887.46082175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5283,7 +5293,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5320,14 +5330,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58148-2025</t>
+          <t>A 16145-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45981</v>
+        <v>45750.45947916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5340,7 +5350,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5377,14 +5387,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62122-2024</t>
+          <t>A 39498-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45656.57710648148</v>
+        <v>45890.37979166667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5397,7 +5407,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5434,14 +5444,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6820-2024</t>
+          <t>A 38715-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45342.60222222222</v>
+        <v>44815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5454,7 +5464,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5491,14 +5501,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 33510-2023</t>
+          <t>A 41022-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45131.48244212963</v>
+        <v>45898.36680555555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5511,7 +5521,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5548,14 +5558,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 64846-2023</t>
+          <t>A 10251-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45282</v>
+        <v>45720.3642824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5568,7 +5578,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5605,14 +5615,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16145-2025</t>
+          <t>A 50364-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45750.45947916667</v>
+        <v>45600.86899305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5625,7 +5635,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5662,14 +5672,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 15306-2024</t>
+          <t>A 37625-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45400.64541666667</v>
+        <v>45541.51965277778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5682,7 +5692,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5719,14 +5729,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46575-2025</t>
+          <t>A 45223-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45926</v>
+        <v>45919.58</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5739,7 +5749,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5776,14 +5786,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33817-2023</t>
+          <t>A 46535-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45133.59908564815</v>
+        <v>45926.3405787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5796,7 +5806,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5833,14 +5843,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62737-2025</t>
+          <t>A 47241-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46008.57259259259</v>
+        <v>45930.42329861111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5853,7 +5863,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5890,14 +5900,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 56629-2021</t>
+          <t>A 20332-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44480.84695601852</v>
+        <v>45056.47526620371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5947,14 +5957,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56429-2022</t>
+          <t>A 22351-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44891.458125</v>
+        <v>45786.45296296296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5967,7 +5977,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6004,14 +6014,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10161-2025</t>
+          <t>A 22356-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45719</v>
+        <v>45786.46065972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6023,13 +6033,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6066,14 +6071,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60768-2024</t>
+          <t>A 22340-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45644.57855324074</v>
+        <v>45786.44733796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6086,7 +6091,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6123,14 +6128,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54408-2021</t>
+          <t>A 49693-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44473.40636574074</v>
+        <v>45939.67203703704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6143,7 +6148,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6180,14 +6185,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 12421-2024</t>
+          <t>A 14141-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45379</v>
+        <v>45740.484375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6199,13 +6204,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6242,14 +6242,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20555-2022</t>
+          <t>A 10164-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44700.36916666666</v>
+        <v>45719.64946759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6261,8 +6261,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6299,14 +6304,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 17072-2022</t>
+          <t>A 9374-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44677.32255787037</v>
+        <v>45715.32998842592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6320,11 +6325,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6361,14 +6366,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60138-2022</t>
+          <t>A 51380-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44909.67563657407</v>
+        <v>45950.4577662037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6381,7 +6386,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6418,14 +6423,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 37625-2024</t>
+          <t>A 55475-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45541.51965277778</v>
+        <v>45971</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6438,7 +6443,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6475,14 +6480,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 38243-2024</t>
+          <t>A 57160-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45545.57233796296</v>
+        <v>45979.52912037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6495,7 +6500,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6532,14 +6537,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14223-2024</t>
+          <t>A 57161-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45393.46190972222</v>
+        <v>45979.53009259259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6552,7 +6557,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6589,14 +6594,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38715-2022</t>
+          <t>A 58148-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44815</v>
+        <v>45981</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6609,7 +6614,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6646,14 +6651,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4954-2024</t>
+          <t>A 46575-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45329</v>
+        <v>45926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6666,7 +6671,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6703,14 +6708,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 39678-2021</t>
+          <t>A 62737-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44417</v>
+        <v>46008.57259259259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6722,13 +6727,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6765,14 +6765,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 18499-2022</t>
+          <t>A 10161-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44686</v>
+        <v>45719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6786,11 +6786,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>

--- a/Översikt ESSUNGA.xlsx
+++ b/Översikt ESSUNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44385.35335648148</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>44274</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>44606.65796296296</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -824,14 +824,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 61593-2021</t>
+          <t>A 24867-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44501.46244212963</v>
+        <v>44341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -881,14 +881,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 24867-2021</t>
+          <t>A 61593-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44341</v>
+        <v>44501.46244212963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>44398</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>44811.63681712963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44406.50302083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44473.45759259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44641.43099537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1223,14 +1223,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 18394-2022</t>
+          <t>A 62536-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44686.32553240741</v>
+        <v>44503</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>9.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1280,14 +1280,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 33399-2021</t>
+          <t>A 54521-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44377.57690972222</v>
+        <v>44473.53315972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1337,14 +1337,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 62503-2021</t>
+          <t>A 33399-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44503</v>
+        <v>44377.57690972222</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1394,14 +1394,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 62536-2021</t>
+          <t>A 33996-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44503</v>
+        <v>44379</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1451,14 +1451,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 54521-2021</t>
+          <t>A 37377-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44473.53315972222</v>
+        <v>44398.26491898148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1508,14 +1508,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 62710-2021</t>
+          <t>A 62503-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1565,14 +1565,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21204-2021</t>
+          <t>A 18394-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44320</v>
+        <v>44686.32553240741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1584,13 +1584,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1627,14 +1622,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 17737-2021</t>
+          <t>A 62710-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44300</v>
+        <v>44502</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1647,7 +1642,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1684,14 +1679,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 22683-2021</t>
+          <t>A 17737-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44327.58306712963</v>
+        <v>44300</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1704,7 +1699,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1741,14 +1736,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 26623-2021</t>
+          <t>A 22683-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44348.65982638889</v>
+        <v>44327.58306712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1761,7 +1756,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1798,14 +1793,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22279-2024</t>
+          <t>A 26623-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45446</v>
+        <v>44348.65982638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1817,13 +1812,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1860,14 +1850,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22283-2024</t>
+          <t>A 21204-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45446</v>
+        <v>44320</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1885,7 +1875,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1922,14 +1912,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33996-2021</t>
+          <t>A 18510-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44379</v>
+        <v>44686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1941,8 +1931,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1979,14 +1974,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 18510-2022</t>
+          <t>A 24686-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44686</v>
+        <v>44727.70273148148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1998,13 +1993,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>8.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2041,14 +2031,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 34702-2022</t>
+          <t>A 32914-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44795.55644675926</v>
+        <v>44784.61553240741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2061,7 +2051,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2098,14 +2088,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 38243-2024</t>
+          <t>A 3867-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45545.57233796296</v>
+        <v>45322.40543981481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2118,7 +2108,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2155,14 +2145,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 6820-2024</t>
+          <t>A 3868-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45342.60222222222</v>
+        <v>45322.40641203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2175,7 +2165,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>11.8</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2212,14 +2202,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37377-2021</t>
+          <t>A 62360-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44398.26491898148</v>
+        <v>44503.45417824074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2232,7 +2222,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2269,14 +2259,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37774-2024</t>
+          <t>A 50364-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45542.42212962963</v>
+        <v>45600.86899305556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2289,7 +2279,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2326,14 +2316,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 15552-2024</t>
+          <t>A 57280-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45401.63732638889</v>
+        <v>45629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2346,7 +2336,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2383,14 +2373,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50366-2024</t>
+          <t>A 9375-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45600.87225694444</v>
+        <v>45715.33446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2402,8 +2392,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2440,14 +2435,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62122-2024</t>
+          <t>A 10251-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45656.57710648148</v>
+        <v>45720.3642824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2460,7 +2455,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2497,14 +2492,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62373-2021</t>
+          <t>A 22279-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44503.46652777777</v>
+        <v>45446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2516,8 +2511,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2554,14 +2554,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 64846-2023</t>
+          <t>A 22283-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45282</v>
+        <v>45446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2573,8 +2573,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2611,14 +2616,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24686-2022</t>
+          <t>A 10161-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44727.70273148148</v>
+        <v>45719</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2630,8 +2635,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>8.6</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2668,14 +2678,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60138-2022</t>
+          <t>A 38800-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44909.67563657407</v>
+        <v>45887.46082175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2688,7 +2698,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2725,14 +2735,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14223-2024</t>
+          <t>A 38794-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45393.46190972222</v>
+        <v>45887.45128472222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2745,7 +2755,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2782,14 +2792,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33817-2023</t>
+          <t>A 38796-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45133.59908564815</v>
+        <v>45887.45560185185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2802,7 +2812,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2839,14 +2849,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19946-2024</t>
+          <t>A 38799-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45433.62172453704</v>
+        <v>45887.45842592593</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2859,7 +2869,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2896,14 +2906,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3317-2024</t>
+          <t>A 10690-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45317.49085648148</v>
+        <v>45722.2999537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2915,13 +2925,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>10.2</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2958,14 +2963,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12421-2024</t>
+          <t>A 12006-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45379</v>
+        <v>45377.31758101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2977,13 +2982,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3020,14 +3020,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 56429-2022</t>
+          <t>A 16248-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44891.458125</v>
+        <v>44670.44054398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3077,14 +3077,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56629-2021</t>
+          <t>A 27125-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44480.84695601852</v>
+        <v>45811.84207175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3134,14 +3134,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10690-2025</t>
+          <t>A 39498-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45722.2999537037</v>
+        <v>45890.37979166667</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3191,14 +3191,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12006-2024</t>
+          <t>A 64639-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45377.31758101852</v>
+        <v>45281.55422453704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3248,14 +3248,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27125-2025</t>
+          <t>A 3317-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45811.84207175926</v>
+        <v>45317.49085648148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3267,8 +3267,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>10.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3305,14 +3310,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 32914-2022</t>
+          <t>A 32176-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44784.61553240741</v>
+        <v>45835</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3325,7 +3330,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3362,14 +3367,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 18499-2022</t>
+          <t>A 892-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44686</v>
+        <v>44931.81667824074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3381,13 +3386,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54408-2021</t>
+          <t>A 8177-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44473.40636574074</v>
+        <v>45351.62673611111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 3319-2024</t>
+          <t>A 37774-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45317</v>
+        <v>45542.42212962963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3500,13 +3500,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3543,14 +3538,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3320-2024</t>
+          <t>A 32615-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45317</v>
+        <v>45838.64232638889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3562,13 +3557,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3605,14 +3595,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9375-2025</t>
+          <t>A 41022-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45715.33446759259</v>
+        <v>45898.36680555555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3624,13 +3614,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3667,14 +3652,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13876-2023</t>
+          <t>A 24351-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45007.71679398148</v>
+        <v>44337</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3687,7 +3672,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3724,14 +3709,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20555-2022</t>
+          <t>A 54514-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44700.36916666666</v>
+        <v>44473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3744,7 +3729,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3781,14 +3766,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39678-2021</t>
+          <t>A 54555-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44417</v>
+        <v>45233</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3800,13 +3785,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3843,14 +3823,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17072-2022</t>
+          <t>A 3319-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44677.32255787037</v>
+        <v>45317</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3864,11 +3844,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3905,14 +3885,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10889-2023</t>
+          <t>A 3320-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44991.44820601852</v>
+        <v>45317</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3924,8 +3904,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3962,14 +3947,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4954-2024</t>
+          <t>A 45223-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45329</v>
+        <v>45919.58</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3982,7 +3967,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4019,14 +4004,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32176-2025</t>
+          <t>A 15552-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45835</v>
+        <v>45401.63732638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4039,7 +4024,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4076,14 +4061,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 32615-2025</t>
+          <t>A 46535-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45838.64232638889</v>
+        <v>45926.3405787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4096,7 +4081,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4133,14 +4118,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64639-2023</t>
+          <t>A 44992-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45281.55422453704</v>
+        <v>45190.95885416667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4153,7 +4138,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4190,14 +4175,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60768-2024</t>
+          <t>A 10889-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45644.57855324074</v>
+        <v>44991.44820601852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4210,7 +4195,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4247,14 +4232,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16248-2022</t>
+          <t>A 47241-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44670.44054398148</v>
+        <v>45930.42329861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4267,7 +4252,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4304,14 +4289,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62360-2021</t>
+          <t>A 34702-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44503.45417824074</v>
+        <v>44795.55644675926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4324,7 +4309,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4361,14 +4346,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8177-2024</t>
+          <t>A 19946-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45351.62673611111</v>
+        <v>45433.62172453704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4381,7 +4366,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4418,14 +4403,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24351-2021</t>
+          <t>A 8213-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44337</v>
+        <v>45708.44587962963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4438,7 +4423,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4475,14 +4460,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33510-2023</t>
+          <t>A 49693-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45131.48244212963</v>
+        <v>45939.67203703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4495,7 +4480,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4532,14 +4517,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8213-2025</t>
+          <t>A 36603-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45708.44587962963</v>
+        <v>44804.6522800926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4552,7 +4537,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4589,14 +4574,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57280-2024</t>
+          <t>A 51380-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45629</v>
+        <v>45950.4577662037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4609,7 +4594,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4646,14 +4631,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54555-2023</t>
+          <t>A 62373-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45233</v>
+        <v>44503.46652777777</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4666,7 +4651,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4703,14 +4688,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36603-2022</t>
+          <t>A 62122-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44804.6522800926</v>
+        <v>45656.57710648148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4723,7 +4708,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4760,14 +4745,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44992-2023</t>
+          <t>A 6820-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45190.95885416667</v>
+        <v>45342.60222222222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4780,7 +4765,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>11.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4817,14 +4802,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 892-2023</t>
+          <t>A 33510-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44931.81667824074</v>
+        <v>45131.48244212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4837,7 +4822,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4874,14 +4859,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 54514-2021</t>
+          <t>A 55475-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44473</v>
+        <v>45971</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4894,7 +4879,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4931,14 +4916,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3867-2024</t>
+          <t>A 64846-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45322.40543981481</v>
+        <v>45282</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4951,7 +4936,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4988,14 +4973,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3868-2024</t>
+          <t>A 16145-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45322.40641203704</v>
+        <v>45750.45947916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5008,7 +4993,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5045,14 +5030,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15306-2024</t>
+          <t>A 57160-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45400.64541666667</v>
+        <v>45979.52912037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5065,7 +5050,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5102,14 +5087,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38799-2025</t>
+          <t>A 57161-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45887.45842592593</v>
+        <v>45979.53009259259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5122,7 +5107,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5159,14 +5144,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38796-2025</t>
+          <t>A 15306-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45887.45560185185</v>
+        <v>45400.64541666667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5179,7 +5164,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5216,14 +5201,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38794-2025</t>
+          <t>A 58148-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45887.45128472222</v>
+        <v>45981</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5236,7 +5221,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5273,14 +5258,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38800-2025</t>
+          <t>A 33817-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45887.46082175926</v>
+        <v>45133.59908564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5293,7 +5278,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5330,14 +5315,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16145-2025</t>
+          <t>A 56629-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45750.45947916667</v>
+        <v>44480.84695601852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5350,7 +5335,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5387,14 +5372,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39498-2025</t>
+          <t>A 56429-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45890.37979166667</v>
+        <v>44891.458125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5407,7 +5392,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5444,14 +5429,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 38715-2022</t>
+          <t>A 60768-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44815</v>
+        <v>45644.57855324074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5464,7 +5449,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5501,14 +5486,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41022-2025</t>
+          <t>A 54408-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45898.36680555555</v>
+        <v>44473.40636574074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5521,7 +5506,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5558,14 +5543,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10251-2025</t>
+          <t>A 46575-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45720.3642824074</v>
+        <v>45926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5578,7 +5563,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5615,14 +5600,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50364-2024</t>
+          <t>A 12421-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45600.86899305556</v>
+        <v>45379</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5634,8 +5619,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5672,14 +5662,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 37625-2024</t>
+          <t>A 20555-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45541.51965277778</v>
+        <v>44700.36916666666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5692,7 +5682,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5729,14 +5719,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 45223-2025</t>
+          <t>A 62737-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45919.58</v>
+        <v>46008.57259259259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5749,7 +5739,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5786,14 +5776,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46535-2025</t>
+          <t>A 17072-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45926.3405787037</v>
+        <v>44677.32255787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5805,8 +5795,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5843,14 +5838,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47241-2025</t>
+          <t>A 60138-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45930.42329861111</v>
+        <v>44909.67563657407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5863,7 +5858,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5900,14 +5895,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20332-2023</t>
+          <t>A 37625-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45056.47526620371</v>
+        <v>45541.51965277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5920,7 +5915,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5957,14 +5952,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 22351-2025</t>
+          <t>A 38243-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45786.45296296296</v>
+        <v>45545.57233796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5977,7 +5972,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6014,14 +6009,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 22356-2025</t>
+          <t>A 14223-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45786.46065972222</v>
+        <v>45393.46190972222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6034,7 +6029,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6071,14 +6066,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22340-2025</t>
+          <t>A 38715-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45786.44733796296</v>
+        <v>44815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6091,7 +6086,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6128,14 +6123,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 49693-2025</t>
+          <t>A 4954-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45939.67203703704</v>
+        <v>45329</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6148,7 +6143,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6185,14 +6180,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14141-2025</t>
+          <t>A 39678-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45740.484375</v>
+        <v>44417</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6204,8 +6199,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6242,14 +6242,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10164-2025</t>
+          <t>A 18499-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45719.64946759259</v>
+        <v>44686</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6263,11 +6263,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6304,14 +6304,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9374-2025</t>
+          <t>A 13876-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45715.32998842592</v>
+        <v>45007.71679398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6321,11 +6321,6 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>ESSUNGA</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -6366,14 +6361,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 51380-2025</t>
+          <t>A 50366-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45950.4577662037</v>
+        <v>45600.87225694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6386,7 +6381,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6423,14 +6418,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55475-2025</t>
+          <t>A 22351-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45971</v>
+        <v>45786.45296296296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6443,7 +6438,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6480,14 +6475,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57160-2025</t>
+          <t>A 20332-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45979.52912037037</v>
+        <v>45056.47526620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6537,14 +6532,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 57161-2025</t>
+          <t>A 22356-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45979.53009259259</v>
+        <v>45786.46065972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6557,7 +6552,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6594,14 +6589,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58148-2025</t>
+          <t>A 22340-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45981</v>
+        <v>45786.44733796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6614,7 +6609,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6651,14 +6646,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46575-2025</t>
+          <t>A 10164-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45926</v>
+        <v>45719.64946759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6670,8 +6665,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6708,14 +6708,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62737-2025</t>
+          <t>A 9374-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46008.57259259259</v>
+        <v>45715.32998842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6727,8 +6727,13 @@
           <t>ESSUNGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6765,14 +6770,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10161-2025</t>
+          <t>A 14141-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45719</v>
+        <v>45740.484375</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6784,13 +6789,8 @@
           <t>ESSUNGA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
